--- a/_Out/NFDataCfg/Excel/Talent.xlsx
+++ b/_Out/NFDataCfg/Excel/Talent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -790,22 +790,22 @@
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="b">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -813,22 +813,22 @@
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="b">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -836,22 +836,22 @@
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="b">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -859,22 +859,22 @@
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="b">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -882,22 +882,22 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -905,22 +905,22 @@
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -928,22 +928,22 @@
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
     </row>
